--- a/biology/Médecine/Rocke_Robertson/Rocke_Robertson.xlsx
+++ b/biology/Médecine/Rocke_Robertson/Rocke_Robertson.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Harold Rocke Robertson, C.C. M.S.R.C., (né le 4 août 1912 et décédé le 8 février 1998) est un médecin[1], ancien principal et vice-chancelier de l'Université McGill de 1962 à 1970[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Harold Rocke Robertson, C.C. M.S.R.C., (né le 4 août 1912 et décédé le 8 février 1998) est un médecin, ancien principal et vice-chancelier de l'Université McGill de 1962 à 1970.
 </t>
         </is>
       </c>
@@ -511,15 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Né à Victoria, en Colombie-Britannique, Rocke Robertson a passé un baccalauréat ès sciences en 1932 et un diplôme de médecin en 1936 dans les deux cas à l'Université McGill. Pendant la Seconde Guerre mondiale il a servi comme chirurgien et est devenu lieutenant-colonel responsable de la chirurgie à l'hôpital militaire de Vancouver[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Né à Victoria, en Colombie-Britannique, Rocke Robertson a passé un baccalauréat ès sciences en 1932 et un diplôme de médecin en 1936 dans les deux cas à l'Université McGill. Pendant la Seconde Guerre mondiale il a servi comme chirurgien et est devenu lieutenant-colonel responsable de la chirurgie à l'hôpital militaire de Vancouver.
 Après la guerre, en 1950, il est devenu premier professeur et président du département de chirurgie à l'Université de la Colombie-Britannique, où il a joué un rôle important dans la fondation de l'école de médecine.
 En 1959, il est devenu chirurgien en chef à l'Hôpital général de Montréal, avant d'être nommé principal de l'Université McGill en 1962. Il a été le premier médecin et le premier diplômé de l'Université McGill y servir comme principal et vice-chancelier.
-Il a été élu Fellow de la Société royale du Canada en 1968 et a été nommé Compagnon de l'Ordre du Canada en 1969[4].
-Des champs de bataille de la Seconde Guerre mondiale à la salle d'urgence de l'Hôpital général de Montréal et au poste de recteur de l'Université McGill, chaque étape de sa vie illustre une de ses citations préférées : « Quand nous établissons dans le monde la place qui nous revient, c'est surtout le caractère qui compte »[5].
-Vie privée
-Il s'est marié avec Beatrice Rosalyn Arnold (1912-2001) et a eu quatre enfants : Tam, Ian, Bea et Stuart[6].
+Il a été élu Fellow de la Société royale du Canada en 1968 et a été nommé Compagnon de l'Ordre du Canada en 1969.
+Des champs de bataille de la Seconde Guerre mondiale à la salle d'urgence de l'Hôpital général de Montréal et au poste de recteur de l'Université McGill, chaque étape de sa vie illustre une de ses citations préférées : « Quand nous établissons dans le monde la place qui nous revient, c'est surtout le caractère qui compte ».
 </t>
         </is>
       </c>
@@ -545,13 +557,52 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Vie privée</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'est marié avec Beatrice Rosalyn Arnold (1912-2001) et a eu quatre enfants : Tam, Ian, Bea et Stuart.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Rocke_Robertson</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rocke_Robertson</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Récompenses et distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Rocke Robertson a reçu des diplômes de docteur honoris causa de nombreuses universités[7] : Université Bishop's, Université du Manitoba, Université de Toronto, Université de Victoria (1964), Université de Glasgow, Université de la Colombie-Britannique (1964), Université de Montréal, Université du Michigan, Dartmouth College et Université Memorial de Terre-Neuve (1968).
-Une chaire universitaire[8] ainsi qu'un prix[9] portent son nom.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rocke Robertson a reçu des diplômes de docteur honoris causa de nombreuses universités : Université Bishop's, Université du Manitoba, Université de Toronto, Université de Victoria (1964), Université de Glasgow, Université de la Colombie-Britannique (1964), Université de Montréal, Université du Michigan, Dartmouth College et Université Memorial de Terre-Neuve (1968).
+Une chaire universitaire ainsi qu'un prix portent son nom.
 </t>
         </is>
       </c>
